--- a/form2_responses.xlsx
+++ b/form2_responses.xlsx
@@ -434,7 +434,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Indian Constitution, Innovation and Design Thinking</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/form2_responses.xlsx
+++ b/form2_responses.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indian Constitution, Innovation and Design Thinking</t>
+          <t>Indian Constitution</t>
         </is>
       </c>
     </row>
